--- a/backend/projects/project-a-123-sunset-blvd/data/19_MONTHLY_CLOSE/2024-07-Close/Income_Statement_July_2024.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/19_MONTHLY_CLOSE/2024-07-Close/Income_Statement_July_2024.xlsx
@@ -461,19 +461,12 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
           <t>REVENUE</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -507,25 +500,17 @@
           <t>TOTAL REVENUE</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" s="2">
         <f>SUM(C6:C7)</f>
         <v/>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
           <t>COST OF GOODS SOLD</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -598,24 +583,17 @@
           <t>TOTAL COGS</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" s="2">
         <f>SUM(C11:C15)</f>
         <v/>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
           <t>GROSS PROFIT</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" s="2">
         <f>C8-C16</f>
         <v/>
@@ -627,25 +605,17 @@
           <t>Gross Profit Margin %</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" s="4">
         <f>C18/C8</f>
         <v/>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
           <t>OPERATING EXPENSES</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -731,24 +701,17 @@
           <t>TOTAL OPERATING EXPENSES</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" s="2">
         <f>SUM(C22:C27)</f>
         <v/>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-    </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" s="2">
         <f>C18-C28+C26</f>
         <v/>
@@ -760,7 +723,6 @@
           <t>NET INCOME</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" s="2">
         <f>C18-C28</f>
         <v/>
@@ -772,7 +734,6 @@
           <t>Net Profit Margin %</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" s="4">
         <f>C31/C8</f>
         <v/>
